--- a/data/input/absenteeism_data_39.xlsx
+++ b/data/input/absenteeism_data_39.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32373</v>
+        <v>14246</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Elisa Lopes</t>
+          <t>Letícia Carvalho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,80 +494,80 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>8042.49</v>
+        <v>4803.11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>59808</v>
+        <v>10888</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Sophia Porto</t>
+          <t>Valentina Rodrigues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45105</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>8662.209999999999</v>
+        <v>12455.47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94504</v>
+        <v>98788</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>André Novaes</t>
+          <t>Vinicius Gomes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>7897.49</v>
+        <v>3382.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24477</v>
+        <v>22305</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Vitória Teixeira</t>
+          <t>Valentina da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,31 +577,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45095</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>9855.93</v>
+        <v>8131.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>72754</v>
+        <v>93759</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heitor Silva</t>
+          <t>Joana Nunes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,114 +610,114 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>10728.87</v>
+        <v>11536.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67784</v>
+        <v>91422</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maysa Novaes</t>
+          <t>Evelyn Duarte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45098</v>
       </c>
       <c r="G7" t="n">
-        <v>10010.02</v>
+        <v>4199.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>77919</v>
+        <v>21255</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Miguel da Rocha</t>
+          <t>Luiz Felipe da Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>8811.49</v>
+        <v>4896.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>33316</v>
+        <v>84006</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Davi Lucas Santos</t>
+          <t>Dr. Ryan Lima</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45102</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>3713.22</v>
+        <v>8715.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56651</v>
+        <v>95061</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Danilo Jesus</t>
+          <t>Marina Costela</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,22 +726,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>6276.05</v>
+        <v>8826.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>28175</v>
+        <v>61150</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rebeca Nunes</t>
+          <t>Srta. Marina Rodrigues</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45106</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>6020.21</v>
+        <v>9187.93</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_39.xlsx
+++ b/data/input/absenteeism_data_39.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14246</v>
+        <v>15293</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Letícia Carvalho</t>
+          <t>Arthur da Mota</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,89 +490,89 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45080</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>4803.11</v>
+        <v>10218.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10888</v>
+        <v>47555</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Valentina Rodrigues</t>
+          <t>João Miguel Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>12455.47</v>
+        <v>8321.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98788</v>
+        <v>5025</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vinicius Gomes</t>
+          <t>Guilherme Ramos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>3382.45</v>
+        <v>4140.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22305</v>
+        <v>48872</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Valentina da Cunha</t>
+          <t>Sra. Maria Eduarda Peixoto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,22 +581,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>8131.1</v>
+        <v>9669.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>93759</v>
+        <v>99209</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Joana Nunes</t>
+          <t>Dr. Lucas Gabriel Fernandes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,162 +606,162 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>11536.99</v>
+        <v>7069.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91422</v>
+        <v>63057</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Evelyn Duarte</t>
+          <t>Sr. Juan Cavalcanti</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>4199.54</v>
+        <v>10095.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>21255</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Felipe da Rocha</t>
+          <t>Calebe da Cunha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45103</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>4896.86</v>
+        <v>7784.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>84006</v>
+        <v>24868</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Ryan Lima</t>
+          <t>Alexandre Santos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45088</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>8715.48</v>
+        <v>4769.42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>95061</v>
+        <v>12881</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marina Costela</t>
+          <t>Thales Duarte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>8826.18</v>
+        <v>4123.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61150</v>
+        <v>7997</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Marina Rodrigues</t>
+          <t>Dra. Marcela Azevedo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45099</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>9187.93</v>
+        <v>3525.44</v>
       </c>
     </row>
   </sheetData>
